--- a/src/Tests/sample.xlsx
+++ b/src/Tests/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Verify.Aspose\src\Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\VerifyTests\Verify.Aspose\src\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CB2BC3-6CAB-4491-B380-C601D390354E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAB36F4-5C13-4639-A094-1D32A9DD0150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="4980" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="29">
   <si>
     <t>First Name</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>United States</t>
   </si>
   <si>
-    <t>15/10/2017</t>
-  </si>
-  <si>
     <t>Mara</t>
   </si>
   <si>
@@ -67,9 +61,6 @@
     <t>Great Britain</t>
   </si>
   <si>
-    <t>16/08/2016</t>
-  </si>
-  <si>
     <t>Philip</t>
   </si>
   <si>
@@ -80,9 +71,6 @@
   </si>
   <si>
     <t>France</t>
-  </si>
-  <si>
-    <t>21/05/2015</t>
   </si>
   <si>
     <t>Kathleen</t>
@@ -125,9 +113,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -164,10 +149,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -483,17 +467,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="25" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -515,9 +501,7 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -535,1180 +519,1044 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>32</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2">
+      <c r="G2">
         <v>1562</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
       </c>
       <c r="F3">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3">
+      <c r="G3">
         <v>1582</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
       </c>
       <c r="F4">
         <v>36</v>
       </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4">
+      <c r="G4">
         <v>2587</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F5">
         <v>25</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5">
+      <c r="G5">
         <v>3549</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F6">
         <v>58</v>
       </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6">
+      <c r="G6">
         <v>2468</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F7">
         <v>24</v>
       </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7">
+      <c r="G7">
         <v>2554</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <v>56</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8">
+      <c r="G8">
         <v>3598</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F9">
         <v>27</v>
       </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9">
+      <c r="G9">
         <v>2456</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F10">
         <v>40</v>
       </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10">
+      <c r="G10">
         <v>6548</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>32</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11">
+      <c r="G11">
         <v>1562</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
         <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
       </c>
       <c r="F12">
         <v>25</v>
       </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12">
+      <c r="G12">
         <v>1582</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
         <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
       </c>
       <c r="F13">
         <v>36</v>
       </c>
-      <c r="G13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13">
+      <c r="G13">
         <v>2587</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F14">
         <v>25</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14">
+      <c r="G14">
         <v>3549</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F15">
         <v>58</v>
       </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15">
+      <c r="G15">
         <v>2468</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F16">
         <v>24</v>
       </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16">
+      <c r="G16">
         <v>2554</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F17">
         <v>56</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17">
+      <c r="G17">
         <v>3598</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F18">
         <v>27</v>
       </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18">
+      <c r="G18">
         <v>2456</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F19">
         <v>40</v>
       </c>
-      <c r="G19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19">
+      <c r="G19">
         <v>6548</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20">
         <v>32</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20">
+      <c r="G20">
         <v>1562</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
         <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
       </c>
       <c r="F21">
         <v>25</v>
       </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21">
+      <c r="G21">
         <v>1582</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
       <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
         <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s">
-        <v>19</v>
       </c>
       <c r="F22">
         <v>36</v>
       </c>
-      <c r="G22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22">
+      <c r="G22">
         <v>2587</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F23">
         <v>25</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23">
+      <c r="G23">
         <v>3549</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F24">
         <v>58</v>
       </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24">
+      <c r="G24">
         <v>2468</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F25">
         <v>24</v>
       </c>
-      <c r="G25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25">
+      <c r="G25">
         <v>2554</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F26">
         <v>56</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26">
+      <c r="G26">
         <v>3598</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F27">
         <v>27</v>
       </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27">
+      <c r="G27">
         <v>2456</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F28">
         <v>40</v>
       </c>
-      <c r="G28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28">
+      <c r="G28">
         <v>6548</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
         <v>7</v>
       </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29">
         <v>32</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29">
+      <c r="G29">
         <v>1562</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
         <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
       </c>
       <c r="F30">
         <v>25</v>
       </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30">
+      <c r="G30">
         <v>1582</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
       <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
         <v>16</v>
-      </c>
-      <c r="C31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" t="s">
-        <v>19</v>
       </c>
       <c r="F31">
         <v>36</v>
       </c>
-      <c r="G31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31">
+      <c r="G31">
         <v>2587</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F32">
         <v>25</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32">
+      <c r="G32">
         <v>3549</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F33">
         <v>58</v>
       </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33">
+      <c r="G33">
         <v>2468</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F34">
         <v>24</v>
       </c>
-      <c r="G34" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34">
+      <c r="G34">
         <v>2554</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F35">
         <v>56</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35">
+      <c r="G35">
         <v>3598</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F36">
         <v>27</v>
       </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36">
+      <c r="G36">
         <v>2456</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F37">
         <v>40</v>
       </c>
-      <c r="G37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37">
+      <c r="G37">
         <v>6548</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
         <v>7</v>
       </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F38">
         <v>32</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38">
+      <c r="G38">
         <v>1562</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2</v>
       </c>
       <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
         <v>12</v>
-      </c>
-      <c r="C39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" t="s">
-        <v>14</v>
       </c>
       <c r="F39">
         <v>25</v>
       </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39">
+      <c r="G39">
         <v>1582</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3</v>
       </c>
       <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
         <v>16</v>
-      </c>
-      <c r="C40" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" t="s">
-        <v>19</v>
       </c>
       <c r="F40">
         <v>36</v>
       </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40">
+      <c r="G40">
         <v>2587</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F41">
         <v>25</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41">
+      <c r="G41">
         <v>3549</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F42">
         <v>58</v>
       </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42">
+      <c r="G42">
         <v>2468</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F43">
         <v>24</v>
       </c>
-      <c r="G43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43">
+      <c r="G43">
         <v>2554</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F44">
         <v>56</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44">
+      <c r="G44">
         <v>3598</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F45">
         <v>27</v>
       </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45">
+      <c r="G45">
         <v>2456</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F46">
         <v>40</v>
       </c>
-      <c r="G46" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46">
+      <c r="G46">
         <v>6548</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/Tests/sample.xlsx
+++ b/src/Tests/sample.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\VerifyTests\Verify.Aspose\src\Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Verify.Aspose\src\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAB36F4-5C13-4639-A094-1D32A9DD0150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2010209-0056-43E3-802F-A9A8640FC6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="4980" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="30">
   <si>
     <t>First Name</t>
   </si>
@@ -107,6 +118,9 @@
   </si>
   <si>
     <t>Weiland</t>
+  </si>
+  <si>
+    <t>Formula</t>
   </si>
 </sst>
 </file>
@@ -123,10 +137,12 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,9 +166,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -501,7 +517,9 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -542,6 +560,10 @@
       <c r="G2">
         <v>1562</v>
       </c>
+      <c r="H2">
+        <f>G2+A2</f>
+        <v>1563</v>
+      </c>
     </row>
     <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -565,6 +587,10 @@
       <c r="G3">
         <v>1582</v>
       </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H46" si="0">G3+A3</f>
+        <v>1584</v>
+      </c>
     </row>
     <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -588,6 +614,10 @@
       <c r="G4">
         <v>2587</v>
       </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>2590</v>
+      </c>
     </row>
     <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -611,6 +641,10 @@
       <c r="G5">
         <v>3549</v>
       </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>3553</v>
+      </c>
     </row>
     <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -634,6 +668,10 @@
       <c r="G6">
         <v>2468</v>
       </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>2473</v>
+      </c>
     </row>
     <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -657,6 +695,10 @@
       <c r="G7">
         <v>2554</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>2560</v>
+      </c>
     </row>
     <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -680,6 +722,10 @@
       <c r="G8">
         <v>3598</v>
       </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>3605</v>
+      </c>
     </row>
     <row r="9" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -703,6 +749,10 @@
       <c r="G9">
         <v>2456</v>
       </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>2464</v>
+      </c>
     </row>
     <row r="10" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -725,6 +775,10 @@
       </c>
       <c r="G10">
         <v>6548</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>6557</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -749,6 +803,10 @@
       <c r="G11">
         <v>1562</v>
       </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>1563</v>
+      </c>
     </row>
     <row r="12" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -772,6 +830,10 @@
       <c r="G12">
         <v>1582</v>
       </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>1584</v>
+      </c>
     </row>
     <row r="13" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -795,6 +857,10 @@
       <c r="G13">
         <v>2587</v>
       </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>2590</v>
+      </c>
     </row>
     <row r="14" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -818,6 +884,10 @@
       <c r="G14">
         <v>3549</v>
       </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>3553</v>
+      </c>
     </row>
     <row r="15" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -841,6 +911,10 @@
       <c r="G15">
         <v>2468</v>
       </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>2473</v>
+      </c>
     </row>
     <row r="16" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -864,8 +938,12 @@
       <c r="G16">
         <v>2554</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>7</v>
       </c>
@@ -887,8 +965,12 @@
       <c r="G17">
         <v>3598</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>8</v>
       </c>
@@ -910,8 +992,12 @@
       <c r="G18">
         <v>2456</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>9</v>
       </c>
@@ -933,8 +1019,12 @@
       <c r="G19">
         <v>6548</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>6557</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -956,8 +1046,12 @@
       <c r="G20">
         <v>1562</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -979,8 +1073,12 @@
       <c r="G21">
         <v>1582</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1002,8 +1100,12 @@
       <c r="G22">
         <v>2587</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1025,8 +1127,12 @@
       <c r="G23">
         <v>3549</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1048,8 +1154,12 @@
       <c r="G24">
         <v>2468</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1071,8 +1181,12 @@
       <c r="G25">
         <v>2554</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1094,8 +1208,12 @@
       <c r="G26">
         <v>3598</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>8</v>
       </c>
@@ -1117,8 +1235,12 @@
       <c r="G27">
         <v>2456</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>9</v>
       </c>
@@ -1140,8 +1262,12 @@
       <c r="G28">
         <v>6548</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>6557</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1163,8 +1289,12 @@
       <c r="G29">
         <v>1562</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1186,8 +1316,12 @@
       <c r="G30">
         <v>1582</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1209,8 +1343,12 @@
       <c r="G31">
         <v>2587</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1232,8 +1370,12 @@
       <c r="G32">
         <v>3549</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>5</v>
       </c>
@@ -1255,8 +1397,12 @@
       <c r="G33">
         <v>2468</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>6</v>
       </c>
@@ -1278,8 +1424,12 @@
       <c r="G34">
         <v>2554</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>7</v>
       </c>
@@ -1301,8 +1451,12 @@
       <c r="G35">
         <v>3598</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>8</v>
       </c>
@@ -1324,8 +1478,12 @@
       <c r="G36">
         <v>2456</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>9</v>
       </c>
@@ -1347,8 +1505,12 @@
       <c r="G37">
         <v>6548</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>6557</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1370,8 +1532,12 @@
       <c r="G38">
         <v>1562</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1393,8 +1559,12 @@
       <c r="G39">
         <v>1582</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1416,8 +1586,12 @@
       <c r="G40">
         <v>2587</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1439,8 +1613,12 @@
       <c r="G41">
         <v>3549</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1462,8 +1640,12 @@
       <c r="G42">
         <v>2468</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>6</v>
       </c>
@@ -1485,8 +1667,12 @@
       <c r="G43">
         <v>2554</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>7</v>
       </c>
@@ -1508,8 +1694,12 @@
       <c r="G44">
         <v>3598</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>8</v>
       </c>
@@ -1531,8 +1721,12 @@
       <c r="G45">
         <v>2456</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>9</v>
       </c>
@@ -1554,9 +1748,13 @@
       <c r="G46">
         <v>6548</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>6557</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/Tests/sample.xlsx
+++ b/src/Tests/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Verify.Aspose\src\Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\VerifyTests\Verify.Aspose\src\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2010209-0056-43E3-802F-A9A8640FC6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0660A0-51D5-41E8-825E-D97456BA1043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10320" yWindow="3396" windowWidth="30960" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="31">
   <si>
     <t>First Name</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Formula</t>
+  </si>
+  <si>
+    <t>DOB</t>
   </si>
 </sst>
 </file>
@@ -165,10 +168,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -187,9 +191,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -227,7 +231,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -333,7 +337,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -475,7 +479,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -485,17 +489,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="25" width="8.7109375" customWidth="1"/>
+    <col min="1" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="25" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -520,7 +526,9 @@
       <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -538,7 +546,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -564,8 +572,11 @@
         <f>G2+A2</f>
         <v>1563</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="3">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -591,8 +602,11 @@
         <f t="shared" ref="H3:H46" si="0">G3+A3</f>
         <v>1584</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="3">
+        <v>43832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -618,8 +632,11 @@
         <f t="shared" si="0"/>
         <v>2590</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="3">
+        <v>43833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -645,8 +662,11 @@
         <f t="shared" si="0"/>
         <v>3553</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="3">
+        <v>43834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -672,8 +692,11 @@
         <f t="shared" si="0"/>
         <v>2473</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="3">
+        <v>43835</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -699,8 +722,11 @@
         <f t="shared" si="0"/>
         <v>2560</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="3">
+        <v>43836</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -726,8 +752,11 @@
         <f t="shared" si="0"/>
         <v>3605</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="3">
+        <v>43837</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -753,8 +782,11 @@
         <f t="shared" si="0"/>
         <v>2464</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="3">
+        <v>43838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -780,8 +812,11 @@
         <f t="shared" si="0"/>
         <v>6557</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="3">
+        <v>43839</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -807,8 +842,11 @@
         <f t="shared" si="0"/>
         <v>1563</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="3">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -834,8 +872,11 @@
         <f t="shared" si="0"/>
         <v>1584</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I12" s="3">
+        <v>43841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -861,8 +902,11 @@
         <f t="shared" si="0"/>
         <v>2590</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="3">
+        <v>43842</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -888,8 +932,11 @@
         <f t="shared" si="0"/>
         <v>3553</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="3">
+        <v>43843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -915,8 +962,11 @@
         <f t="shared" si="0"/>
         <v>2473</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="3">
+        <v>43844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -942,8 +992,11 @@
         <f t="shared" si="0"/>
         <v>2560</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="3">
+        <v>43845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
@@ -969,8 +1022,11 @@
         <f t="shared" si="0"/>
         <v>3605</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="3">
+        <v>43846</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -996,8 +1052,11 @@
         <f t="shared" si="0"/>
         <v>2464</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="3">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -1023,8 +1082,11 @@
         <f t="shared" si="0"/>
         <v>6557</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="3">
+        <v>43848</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1050,8 +1112,11 @@
         <f t="shared" si="0"/>
         <v>1563</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="3">
+        <v>43849</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1077,8 +1142,11 @@
         <f t="shared" si="0"/>
         <v>1584</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I21" s="3">
+        <v>43850</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1104,8 +1172,11 @@
         <f t="shared" si="0"/>
         <v>2590</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I22" s="3">
+        <v>43851</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1131,8 +1202,11 @@
         <f t="shared" si="0"/>
         <v>3553</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="3">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1158,8 +1232,11 @@
         <f t="shared" si="0"/>
         <v>2473</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I24" s="3">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1185,8 +1262,11 @@
         <f t="shared" si="0"/>
         <v>2560</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I25" s="3">
+        <v>43854</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1212,8 +1292,11 @@
         <f t="shared" si="0"/>
         <v>3605</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I26" s="3">
+        <v>43855</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8</v>
       </c>
@@ -1239,8 +1322,11 @@
         <f t="shared" si="0"/>
         <v>2464</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I27" s="3">
+        <v>43856</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>9</v>
       </c>
@@ -1266,8 +1352,11 @@
         <f t="shared" si="0"/>
         <v>6557</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I28" s="3">
+        <v>43857</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1293,8 +1382,11 @@
         <f t="shared" si="0"/>
         <v>1563</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I29" s="3">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1320,8 +1412,11 @@
         <f t="shared" si="0"/>
         <v>1584</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I30" s="3">
+        <v>43859</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1347,8 +1442,11 @@
         <f t="shared" si="0"/>
         <v>2590</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I31" s="3">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1374,8 +1472,11 @@
         <f t="shared" si="0"/>
         <v>3553</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I32" s="3">
+        <v>43861</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
@@ -1401,8 +1502,11 @@
         <f t="shared" si="0"/>
         <v>2473</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I33" s="3">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6</v>
       </c>
@@ -1428,8 +1532,11 @@
         <f t="shared" si="0"/>
         <v>2560</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I34" s="3">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7</v>
       </c>
@@ -1455,8 +1562,11 @@
         <f t="shared" si="0"/>
         <v>3605</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I35" s="3">
+        <v>43864</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>8</v>
       </c>
@@ -1482,8 +1592,11 @@
         <f t="shared" si="0"/>
         <v>2464</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I36" s="3">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
@@ -1509,8 +1622,11 @@
         <f t="shared" si="0"/>
         <v>6557</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I37" s="3">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1536,8 +1652,11 @@
         <f t="shared" si="0"/>
         <v>1563</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I38" s="3">
+        <v>43867</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1563,8 +1682,11 @@
         <f t="shared" si="0"/>
         <v>1584</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I39" s="3">
+        <v>43868</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1590,8 +1712,11 @@
         <f t="shared" si="0"/>
         <v>2590</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I40" s="3">
+        <v>43869</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1617,8 +1742,11 @@
         <f t="shared" si="0"/>
         <v>3553</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I41" s="3">
+        <v>43870</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1644,8 +1772,11 @@
         <f t="shared" si="0"/>
         <v>2473</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I42" s="3">
+        <v>43871</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6</v>
       </c>
@@ -1671,8 +1802,11 @@
         <f t="shared" si="0"/>
         <v>2560</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I43" s="3">
+        <v>43872</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7</v>
       </c>
@@ -1698,8 +1832,11 @@
         <f t="shared" si="0"/>
         <v>3605</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I44" s="3">
+        <v>43873</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8</v>
       </c>
@@ -1725,8 +1862,11 @@
         <f t="shared" si="0"/>
         <v>2464</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I45" s="3">
+        <v>43874</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9</v>
       </c>
@@ -1752,961 +1892,964 @@
         <f t="shared" si="0"/>
         <v>6557</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="I46" s="3">
+        <v>43875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
